--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R5870bb0405254ac3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7be0430544c24a3d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7be0430544c24a3d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R9c77a66a7fef4987"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R9c77a66a7fef4987"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R79e612187c924d18"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R79e612187c924d18"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rc89eb9678306496a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rc89eb9678306496a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R5fcccefc2f174152"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R5fcccefc2f174152"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R2ea786b14c084869"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R2ea786b14c084869"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rdb0d29bfecfd4d19"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rdb0d29bfecfd4d19"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcdc6271445d94c16"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcdc6271445d94c16"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R6ec48646d4784f14"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R6ec48646d4784f14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R49cdb1923b254f1a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R49cdb1923b254f1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rd78108f6d70b4b80"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rd78108f6d70b4b80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7619c94ca4374efd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/060_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7619c94ca4374efd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Ra36d1384aed74285"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
